--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,31 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiv0m\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DAC34-63DA-4730-AECA-0C3966F7A313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <si>
+    <t>fileName</t>
+  </si>
   <si>
     <t>text1</t>
   </si>
@@ -33,19 +21,25 @@
     <t>text2</t>
   </si>
   <si>
-    <t>fileName</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <color theme="1" tint="0"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <color theme="1" tint="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,112 +53,36 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="A4A4A4"/>
+        <a:srgbClr val="A4A4A4"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="373737"/>
+        <a:srgbClr val="373737"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -199,74 +117,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,7 +132,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -298,9 +156,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -324,44 +181,52 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -377,7 +242,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -402,43 +267,47 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.3999996185303" zeroHeight="false"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
 </file>